--- a/cleaned data/Lib Arts, Hum & Soc Sci_FA22 Schedule_3-22-22_PM2.xlsx
+++ b/cleaned data/Lib Arts, Hum & Soc Sci_FA22 Schedule_3-22-22_PM2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="293">
   <si>
     <t>Block</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>AWASU, CH</t>
+  </si>
+  <si>
+    <t>ONLINE</t>
   </si>
   <si>
     <t>MW</t>
@@ -1316,8 +1319,20 @@
       <c r="F2" t="s">
         <v>184</v>
       </c>
+      <c r="G2" t="s">
+        <v>219</v>
+      </c>
       <c r="J2">
         <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M2" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1337,25 +1352,25 @@
         <v>185</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J3">
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1375,25 +1390,25 @@
         <v>186</v>
       </c>
       <c r="G4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J4">
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1413,25 +1428,25 @@
         <v>187</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J5">
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1451,28 +1466,28 @@
         <v>188</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J6">
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1495,25 +1510,25 @@
         <v>188</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J7">
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1533,28 +1548,28 @@
         <v>188</v>
       </c>
       <c r="G8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J8">
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1574,28 +1589,28 @@
         <v>188</v>
       </c>
       <c r="G9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J9">
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1618,25 +1633,25 @@
         <v>189</v>
       </c>
       <c r="G10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J10">
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1659,25 +1674,25 @@
         <v>189</v>
       </c>
       <c r="G11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J11">
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1697,25 +1712,25 @@
         <v>189</v>
       </c>
       <c r="G12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H12" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J12">
         <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1735,25 +1750,25 @@
         <v>189</v>
       </c>
       <c r="G13" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J13">
         <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L13" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1776,25 +1791,25 @@
         <v>190</v>
       </c>
       <c r="G14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J14">
         <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L14" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1814,25 +1829,25 @@
         <v>190</v>
       </c>
       <c r="G15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J15">
         <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1852,25 +1867,25 @@
         <v>191</v>
       </c>
       <c r="G16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H16" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J16">
         <v>11</v>
       </c>
       <c r="K16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1890,28 +1905,28 @@
         <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H17" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J17">
         <v>11</v>
       </c>
       <c r="K17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N17" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1931,25 +1946,25 @@
         <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J18">
         <v>11</v>
       </c>
       <c r="K18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1969,28 +1984,28 @@
         <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J19">
         <v>11</v>
       </c>
       <c r="K19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2013,25 +2028,25 @@
         <v>192</v>
       </c>
       <c r="G20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J20">
         <v>18</v>
       </c>
       <c r="K20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M20" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2054,25 +2069,25 @@
         <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J21">
         <v>11</v>
       </c>
       <c r="K21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2095,28 +2110,28 @@
         <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J22">
         <v>11</v>
       </c>
       <c r="K22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2139,25 +2154,25 @@
         <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H23" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J23">
         <v>11</v>
       </c>
       <c r="K23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2180,28 +2195,28 @@
         <v>188</v>
       </c>
       <c r="G24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J24">
         <v>11</v>
       </c>
       <c r="K24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N24" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2223,8 +2238,20 @@
       <c r="F25" t="s">
         <v>193</v>
       </c>
+      <c r="G25" t="s">
+        <v>219</v>
+      </c>
       <c r="J25">
         <v>22</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>219</v>
+      </c>
+      <c r="M25" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2246,8 +2273,20 @@
       <c r="F26" t="s">
         <v>190</v>
       </c>
+      <c r="G26" t="s">
+        <v>219</v>
+      </c>
       <c r="J26">
         <v>22</v>
+      </c>
+      <c r="K26" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" t="s">
+        <v>219</v>
+      </c>
+      <c r="M26" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2270,28 +2309,28 @@
         <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H27" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I27" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M27" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N27" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2314,25 +2353,25 @@
         <v>194</v>
       </c>
       <c r="G28" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I28" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J28">
         <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M28" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2354,11 +2393,23 @@
       <c r="F29" t="s">
         <v>190</v>
       </c>
+      <c r="G29" t="s">
+        <v>219</v>
+      </c>
       <c r="J29">
         <v>22</v>
       </c>
+      <c r="K29" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" t="s">
+        <v>219</v>
+      </c>
       <c r="N29" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2381,25 +2432,25 @@
         <v>193</v>
       </c>
       <c r="G30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J30">
         <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M30" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2422,25 +2473,25 @@
         <v>191</v>
       </c>
       <c r="G31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I31" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J31">
         <v>11</v>
       </c>
       <c r="K31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2463,28 +2514,28 @@
         <v>188</v>
       </c>
       <c r="G32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J32">
         <v>11</v>
       </c>
       <c r="K32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M32" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N32" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2507,25 +2558,25 @@
         <v>191</v>
       </c>
       <c r="G33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J33">
         <v>11</v>
       </c>
       <c r="K33" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M33" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2548,28 +2599,28 @@
         <v>188</v>
       </c>
       <c r="G34" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H34" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J34">
         <v>11</v>
       </c>
       <c r="K34" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M34" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N34" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2592,25 +2643,25 @@
         <v>195</v>
       </c>
       <c r="G35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J35">
         <v>25</v>
       </c>
       <c r="K35" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2633,25 +2684,25 @@
         <v>195</v>
       </c>
       <c r="G36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J36">
         <v>25</v>
       </c>
       <c r="K36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M36" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2673,8 +2724,20 @@
       <c r="F37" t="s">
         <v>196</v>
       </c>
+      <c r="G37" t="s">
+        <v>219</v>
+      </c>
       <c r="J37">
         <v>25</v>
+      </c>
+      <c r="K37" t="s">
+        <v>219</v>
+      </c>
+      <c r="L37" t="s">
+        <v>219</v>
+      </c>
+      <c r="M37" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2697,25 +2760,25 @@
         <v>197</v>
       </c>
       <c r="G38" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J38">
         <v>25</v>
       </c>
       <c r="K38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M38" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2738,25 +2801,25 @@
         <v>198</v>
       </c>
       <c r="G39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J39">
         <v>25</v>
       </c>
       <c r="K39" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M39" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2779,25 +2842,25 @@
         <v>196</v>
       </c>
       <c r="G40" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H40" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I40" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J40">
         <v>25</v>
       </c>
       <c r="K40" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M40" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2820,25 +2883,25 @@
         <v>196</v>
       </c>
       <c r="G41" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H41" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J41">
         <v>25</v>
       </c>
       <c r="K41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L41" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2861,28 +2924,28 @@
         <v>188</v>
       </c>
       <c r="G42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H42" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I42" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J42">
         <v>25</v>
       </c>
       <c r="K42" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L42" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M42" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2902,25 +2965,25 @@
         <v>193</v>
       </c>
       <c r="G43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J43">
         <v>22</v>
       </c>
       <c r="K43" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M43" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2943,25 +3006,25 @@
         <v>195</v>
       </c>
       <c r="G44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I44" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J44">
         <v>22</v>
       </c>
       <c r="K44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L44" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M44" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2984,25 +3047,25 @@
         <v>195</v>
       </c>
       <c r="G45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H45" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J45">
         <v>22</v>
       </c>
       <c r="K45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M45" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3024,8 +3087,20 @@
       <c r="F46" t="s">
         <v>194</v>
       </c>
+      <c r="G46" t="s">
+        <v>219</v>
+      </c>
       <c r="J46">
         <v>22</v>
+      </c>
+      <c r="K46" t="s">
+        <v>219</v>
+      </c>
+      <c r="L46" t="s">
+        <v>219</v>
+      </c>
+      <c r="M46" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3047,8 +3122,20 @@
       <c r="F47" t="s">
         <v>199</v>
       </c>
+      <c r="G47" t="s">
+        <v>219</v>
+      </c>
       <c r="J47">
         <v>22</v>
+      </c>
+      <c r="K47" t="s">
+        <v>219</v>
+      </c>
+      <c r="L47" t="s">
+        <v>219</v>
+      </c>
+      <c r="M47" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3068,28 +3155,28 @@
         <v>190</v>
       </c>
       <c r="G48" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I48" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J48">
         <v>22</v>
       </c>
       <c r="K48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L48" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M48" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N48" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3111,8 +3198,20 @@
       <c r="F49" t="s">
         <v>193</v>
       </c>
+      <c r="G49" t="s">
+        <v>219</v>
+      </c>
       <c r="J49">
         <v>22</v>
+      </c>
+      <c r="K49" t="s">
+        <v>219</v>
+      </c>
+      <c r="L49" t="s">
+        <v>219</v>
+      </c>
+      <c r="M49" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -3135,25 +3234,25 @@
         <v>198</v>
       </c>
       <c r="G50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H50" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I50" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J50">
         <v>22</v>
       </c>
       <c r="K50" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L50" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M50" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -3175,8 +3274,20 @@
       <c r="F51" t="s">
         <v>199</v>
       </c>
+      <c r="G51" t="s">
+        <v>219</v>
+      </c>
       <c r="J51">
         <v>22</v>
+      </c>
+      <c r="K51" t="s">
+        <v>219</v>
+      </c>
+      <c r="L51" t="s">
+        <v>219</v>
+      </c>
+      <c r="M51" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -3199,25 +3310,25 @@
         <v>189</v>
       </c>
       <c r="G52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J52">
         <v>18</v>
       </c>
       <c r="K52" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M52" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3240,25 +3351,25 @@
         <v>195</v>
       </c>
       <c r="G53" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H53" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I53" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J53">
         <v>22</v>
       </c>
       <c r="K53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L53" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M53" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3281,25 +3392,25 @@
         <v>200</v>
       </c>
       <c r="G54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H54" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I54" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J54">
         <v>25</v>
       </c>
       <c r="K54" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L54" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M54" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3322,28 +3433,28 @@
         <v>200</v>
       </c>
       <c r="G55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H55" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L55" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M55" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -3366,25 +3477,25 @@
         <v>200</v>
       </c>
       <c r="G56" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H56" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I56" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J56">
         <v>25</v>
       </c>
       <c r="K56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L56" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M56" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3407,25 +3518,25 @@
         <v>201</v>
       </c>
       <c r="G57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I57" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J57">
         <v>25</v>
       </c>
       <c r="K57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L57" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M57" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3448,25 +3559,25 @@
         <v>201</v>
       </c>
       <c r="G58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H58" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I58" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J58">
         <v>25</v>
       </c>
       <c r="K58" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L58" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M58" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3489,25 +3600,25 @@
         <v>202</v>
       </c>
       <c r="G59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I59" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J59">
         <v>25</v>
       </c>
       <c r="K59" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M59" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3530,25 +3641,25 @@
         <v>202</v>
       </c>
       <c r="G60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I60" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J60">
         <v>25</v>
       </c>
       <c r="K60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L60" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M60" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3571,25 +3682,25 @@
         <v>202</v>
       </c>
       <c r="G61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H61" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I61" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J61">
         <v>25</v>
       </c>
       <c r="K61" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M61" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3611,8 +3722,20 @@
       <c r="F62" t="s">
         <v>201</v>
       </c>
+      <c r="G62" t="s">
+        <v>219</v>
+      </c>
       <c r="J62">
         <v>25</v>
+      </c>
+      <c r="K62" t="s">
+        <v>219</v>
+      </c>
+      <c r="L62" t="s">
+        <v>219</v>
+      </c>
+      <c r="M62" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3635,25 +3758,25 @@
         <v>202</v>
       </c>
       <c r="G63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H63" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I63" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J63">
         <v>25</v>
       </c>
       <c r="K63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M63" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3676,25 +3799,25 @@
         <v>203</v>
       </c>
       <c r="G64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I64" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J64">
         <v>25</v>
       </c>
       <c r="K64" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M64" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3716,11 +3839,23 @@
       <c r="F65" t="s">
         <v>201</v>
       </c>
+      <c r="G65" t="s">
+        <v>219</v>
+      </c>
       <c r="J65">
         <v>25</v>
       </c>
+      <c r="K65" t="s">
+        <v>219</v>
+      </c>
+      <c r="L65" t="s">
+        <v>219</v>
+      </c>
+      <c r="M65" t="s">
+        <v>219</v>
+      </c>
       <c r="N65" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3742,8 +3877,20 @@
       <c r="F66" t="s">
         <v>203</v>
       </c>
+      <c r="G66" t="s">
+        <v>219</v>
+      </c>
       <c r="J66">
         <v>25</v>
+      </c>
+      <c r="K66" t="s">
+        <v>219</v>
+      </c>
+      <c r="L66" t="s">
+        <v>219</v>
+      </c>
+      <c r="M66" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3766,25 +3913,25 @@
         <v>203</v>
       </c>
       <c r="G67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H67" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I67" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J67">
         <v>25</v>
       </c>
       <c r="K67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M67" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3807,25 +3954,25 @@
         <v>203</v>
       </c>
       <c r="G68" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H68" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J68">
         <v>25</v>
       </c>
       <c r="K68" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L68" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M68" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3848,25 +3995,25 @@
         <v>203</v>
       </c>
       <c r="G69" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I69" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J69">
         <v>25</v>
       </c>
       <c r="K69" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L69" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M69" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3889,25 +4036,25 @@
         <v>201</v>
       </c>
       <c r="G70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H70" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I70" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J70">
         <v>25</v>
       </c>
       <c r="K70" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L70" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M70" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3927,25 +4074,25 @@
         <v>187</v>
       </c>
       <c r="G71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I71" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J71">
         <v>17</v>
       </c>
       <c r="K71" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L71" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M71" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3967,8 +4114,20 @@
       <c r="F72" t="s">
         <v>204</v>
       </c>
+      <c r="G72" t="s">
+        <v>219</v>
+      </c>
       <c r="J72">
         <v>25</v>
+      </c>
+      <c r="K72" t="s">
+        <v>219</v>
+      </c>
+      <c r="L72" t="s">
+        <v>219</v>
+      </c>
+      <c r="M72" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3991,25 +4150,25 @@
         <v>189</v>
       </c>
       <c r="G73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H73" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I73" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J73">
         <v>25</v>
       </c>
       <c r="K73" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L73" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M73" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -4032,25 +4191,25 @@
         <v>205</v>
       </c>
       <c r="G74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I74" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J74">
         <v>25</v>
       </c>
       <c r="K74" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L74" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M74" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -4073,25 +4232,25 @@
         <v>195</v>
       </c>
       <c r="G75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I75" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J75">
         <v>22</v>
       </c>
       <c r="K75" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M75" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -4114,25 +4273,25 @@
         <v>198</v>
       </c>
       <c r="G76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H76" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I76" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J76">
         <v>18</v>
       </c>
       <c r="K76" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L76" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M76" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -4155,25 +4314,25 @@
         <v>198</v>
       </c>
       <c r="G77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I77" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J77">
         <v>18</v>
       </c>
       <c r="K77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L77" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M77" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -4196,25 +4355,25 @@
         <v>206</v>
       </c>
       <c r="G78" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H78" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I78" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J78">
         <v>25</v>
       </c>
       <c r="K78" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L78" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M78" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4236,11 +4395,23 @@
       <c r="F79" t="s">
         <v>207</v>
       </c>
+      <c r="G79" t="s">
+        <v>219</v>
+      </c>
       <c r="J79">
         <v>25</v>
       </c>
+      <c r="K79" t="s">
+        <v>219</v>
+      </c>
+      <c r="L79" t="s">
+        <v>219</v>
+      </c>
+      <c r="M79" t="s">
+        <v>219</v>
+      </c>
       <c r="N79" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4262,11 +4433,23 @@
       <c r="F80" t="s">
         <v>208</v>
       </c>
+      <c r="G80" t="s">
+        <v>219</v>
+      </c>
       <c r="J80">
         <v>25</v>
       </c>
+      <c r="K80" t="s">
+        <v>219</v>
+      </c>
+      <c r="L80" t="s">
+        <v>219</v>
+      </c>
+      <c r="M80" t="s">
+        <v>219</v>
+      </c>
       <c r="N80" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4286,25 +4469,25 @@
         <v>188</v>
       </c>
       <c r="G81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I81" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="J81">
         <v>16</v>
       </c>
       <c r="K81" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L81" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M81" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4327,25 +4510,25 @@
         <v>188</v>
       </c>
       <c r="G82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I82" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J82">
         <v>16</v>
       </c>
       <c r="K82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L82" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M82" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4368,25 +4551,25 @@
         <v>209</v>
       </c>
       <c r="G83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I83" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J83">
         <v>25</v>
       </c>
       <c r="K83" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L83" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M83" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4409,25 +4592,25 @@
         <v>210</v>
       </c>
       <c r="G84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I84" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J84">
         <v>25</v>
       </c>
       <c r="K84" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L84" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M84" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4450,25 +4633,25 @@
         <v>210</v>
       </c>
       <c r="G85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H85" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I85" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J85">
         <v>25</v>
       </c>
       <c r="K85" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L85" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M85" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4491,25 +4674,25 @@
         <v>188</v>
       </c>
       <c r="G86" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H86" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J86">
         <v>25</v>
       </c>
       <c r="K86" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M86" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4532,25 +4715,25 @@
         <v>206</v>
       </c>
       <c r="G87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I87" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J87">
         <v>25</v>
       </c>
       <c r="K87" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L87" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M87" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4572,8 +4755,20 @@
       <c r="F88" t="s">
         <v>211</v>
       </c>
+      <c r="G88" t="s">
+        <v>219</v>
+      </c>
       <c r="J88">
         <v>25</v>
+      </c>
+      <c r="K88" t="s">
+        <v>219</v>
+      </c>
+      <c r="L88" t="s">
+        <v>219</v>
+      </c>
+      <c r="M88" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4595,11 +4790,23 @@
       <c r="F89" t="s">
         <v>211</v>
       </c>
+      <c r="G89" t="s">
+        <v>219</v>
+      </c>
       <c r="J89">
         <v>25</v>
       </c>
+      <c r="K89" t="s">
+        <v>219</v>
+      </c>
+      <c r="L89" t="s">
+        <v>219</v>
+      </c>
+      <c r="M89" t="s">
+        <v>219</v>
+      </c>
       <c r="N89" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4621,8 +4828,20 @@
       <c r="F90" t="s">
         <v>212</v>
       </c>
+      <c r="G90" t="s">
+        <v>219</v>
+      </c>
       <c r="J90">
         <v>25</v>
+      </c>
+      <c r="K90" t="s">
+        <v>219</v>
+      </c>
+      <c r="L90" t="s">
+        <v>219</v>
+      </c>
+      <c r="M90" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4645,25 +4864,25 @@
         <v>213</v>
       </c>
       <c r="G91" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H91" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I91" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J91">
         <v>22</v>
       </c>
       <c r="K91" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L91" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M91" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4685,11 +4904,23 @@
       <c r="F92" t="s">
         <v>188</v>
       </c>
+      <c r="G92" t="s">
+        <v>219</v>
+      </c>
       <c r="J92">
         <v>0</v>
       </c>
+      <c r="K92" t="s">
+        <v>219</v>
+      </c>
+      <c r="L92" t="s">
+        <v>219</v>
+      </c>
+      <c r="M92" t="s">
+        <v>219</v>
+      </c>
       <c r="N92" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4711,8 +4942,20 @@
       <c r="F93" t="s">
         <v>214</v>
       </c>
+      <c r="G93" t="s">
+        <v>219</v>
+      </c>
       <c r="J93">
         <v>25</v>
+      </c>
+      <c r="K93" t="s">
+        <v>219</v>
+      </c>
+      <c r="L93" t="s">
+        <v>219</v>
+      </c>
+      <c r="M93" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4734,8 +4977,20 @@
       <c r="F94" t="s">
         <v>214</v>
       </c>
+      <c r="G94" t="s">
+        <v>219</v>
+      </c>
       <c r="J94">
         <v>25</v>
+      </c>
+      <c r="K94" t="s">
+        <v>219</v>
+      </c>
+      <c r="L94" t="s">
+        <v>219</v>
+      </c>
+      <c r="M94" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4757,8 +5012,20 @@
       <c r="F95" t="s">
         <v>212</v>
       </c>
+      <c r="G95" t="s">
+        <v>219</v>
+      </c>
       <c r="J95">
         <v>25</v>
+      </c>
+      <c r="K95" t="s">
+        <v>219</v>
+      </c>
+      <c r="L95" t="s">
+        <v>219</v>
+      </c>
+      <c r="M95" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4778,25 +5045,25 @@
         <v>212</v>
       </c>
       <c r="G96" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I96" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J96">
         <v>25</v>
       </c>
       <c r="K96" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L96" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M96" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -4818,8 +5085,20 @@
       <c r="F97" t="s">
         <v>214</v>
       </c>
+      <c r="G97" t="s">
+        <v>219</v>
+      </c>
       <c r="J97">
         <v>25</v>
+      </c>
+      <c r="K97" t="s">
+        <v>219</v>
+      </c>
+      <c r="L97" t="s">
+        <v>219</v>
+      </c>
+      <c r="M97" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:13">
@@ -4841,8 +5120,20 @@
       <c r="F98" t="s">
         <v>213</v>
       </c>
+      <c r="G98" t="s">
+        <v>219</v>
+      </c>
       <c r="J98">
         <v>25</v>
+      </c>
+      <c r="K98" t="s">
+        <v>219</v>
+      </c>
+      <c r="L98" t="s">
+        <v>219</v>
+      </c>
+      <c r="M98" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="99" spans="1:13">
@@ -4864,8 +5155,20 @@
       <c r="F99" t="s">
         <v>215</v>
       </c>
+      <c r="G99" t="s">
+        <v>219</v>
+      </c>
       <c r="J99">
         <v>25</v>
+      </c>
+      <c r="K99" t="s">
+        <v>219</v>
+      </c>
+      <c r="L99" t="s">
+        <v>219</v>
+      </c>
+      <c r="M99" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:13">
@@ -4888,25 +5191,25 @@
         <v>216</v>
       </c>
       <c r="G100" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I100" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J100">
         <v>25</v>
       </c>
       <c r="K100" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L100" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M100" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="101" spans="1:13">
@@ -4928,8 +5231,20 @@
       <c r="F101" t="s">
         <v>217</v>
       </c>
+      <c r="G101" t="s">
+        <v>219</v>
+      </c>
       <c r="J101">
         <v>25</v>
+      </c>
+      <c r="K101" t="s">
+        <v>219</v>
+      </c>
+      <c r="L101" t="s">
+        <v>219</v>
+      </c>
+      <c r="M101" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="1:13">
@@ -4951,8 +5266,20 @@
       <c r="F102" t="s">
         <v>218</v>
       </c>
+      <c r="G102" t="s">
+        <v>219</v>
+      </c>
       <c r="J102">
         <v>25</v>
+      </c>
+      <c r="K102" t="s">
+        <v>219</v>
+      </c>
+      <c r="L102" t="s">
+        <v>219</v>
+      </c>
+      <c r="M102" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:13">
@@ -4975,25 +5302,25 @@
         <v>216</v>
       </c>
       <c r="G103" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I103" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J103">
         <v>25</v>
       </c>
       <c r="K103" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L103" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M103" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="104" spans="1:13">
@@ -5016,25 +5343,25 @@
         <v>201</v>
       </c>
       <c r="G104" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H104" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I104" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J104">
         <v>25</v>
       </c>
       <c r="K104" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L104" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M104" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -5057,25 +5384,25 @@
         <v>192</v>
       </c>
       <c r="G105" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I105" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J105">
         <v>18</v>
       </c>
       <c r="K105" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L105" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M105" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:13">
@@ -5098,25 +5425,25 @@
         <v>192</v>
       </c>
       <c r="G106" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H106" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J106">
         <v>18</v>
       </c>
       <c r="K106" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L106" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M106" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:13">
@@ -5136,25 +5463,25 @@
         <v>192</v>
       </c>
       <c r="G107" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H107" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I107" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J107">
         <v>18</v>
       </c>
       <c r="K107" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L107" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M107" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:13">
@@ -5177,25 +5504,25 @@
         <v>192</v>
       </c>
       <c r="G108" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H108" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I108" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J108">
         <v>18</v>
       </c>
       <c r="K108" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L108" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M108" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:13">
@@ -5218,25 +5545,25 @@
         <v>192</v>
       </c>
       <c r="G109" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H109" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I109" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J109">
         <v>18</v>
       </c>
       <c r="K109" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L109" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M109" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="1:13">
@@ -5256,25 +5583,25 @@
         <v>192</v>
       </c>
       <c r="G110" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I110" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J110">
         <v>18</v>
       </c>
       <c r="K110" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L110" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M110" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
